--- a/файл excel.xlsx
+++ b/файл excel.xlsx
@@ -11,8 +11,16 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Шипелкин</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,11 +354,20 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>

--- a/файл excel.xlsx
+++ b/файл excel.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Шипелкин</t>
+  </si>
+  <si>
+    <t>Иван</t>
   </si>
 </sst>
 </file>
@@ -351,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -367,6 +370,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/файл excel.xlsx
+++ b/файл excel.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Шипелкин</t>
   </si>
   <si>
     <t>Иван</t>
+  </si>
+  <si>
+    <t>Алексеевич</t>
   </si>
 </sst>
 </file>
@@ -354,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -375,6 +378,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
